--- a/old_database/crypto/library/library_3569.xlsx
+++ b/old_database/crypto/library/library_3569.xlsx
@@ -49,7 +49,7 @@
     <t>02.19.19</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3569</t>
   </si>
   <si>
     <t>03.27.19</t>
